--- a/招生专业.xlsx
+++ b/招生专业.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5590" uniqueCount="5584">
   <si>
-    <t>专业名称</t>
+    <t>招生专业</t>
   </si>
   <si>
     <t>艺术与科技本科(职业)</t>
@@ -16795,11 +16795,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -17257,31 +17263,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17290,120 +17293,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -17755,7 +17762,7 @@
   <dimension ref="A1:A5591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -17764,7 +17771,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
